--- a/biology/Botanique/Astrophytum/Astrophytum.xlsx
+++ b/biology/Botanique/Astrophytum/Astrophytum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrophytum est un genre de la famille des cactus. Il comprend 6 espèces.
 Il est originaire du centre et du nord-est du Mexique.
@@ -519,16 +531,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces
-Astrophytum asterias (Zucc.) Lem.
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrophytum asterias (Zucc.) Lem.
 Astrophytum capricorne (A.Dietr.) Britton &amp; Rose
 Astrophytum caput-medusae D.R.Hunt
 Astrophytum coahuilense (Møller) K.Kayser
 Astrophytum myriostigma Lem.
 Astrophytum ornatum (DC.) Britton &amp; Rose
 En outre, l'existence d'hybrides interspécifiques est envisageable.
-Synonymes
-Le genre a plusieurs synonymes: 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Astrophytum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrophytum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a plusieurs synonymes: 
 Astrophyton  le bas . (orth. var.)
 Maierocactus  ECRost </t>
         </is>
